--- a/analysis/data/derived_data/flaking_intensity_and_shape.xlsx
+++ b/analysis/data/derived_data/flaking_intensity_and_shape.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C5FDC3-6192-4F7A-A57B-1F31D53DCC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE64AE79-8D7D-4B6D-A6AE-E39E33DF4CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4986D3CE-FD73-4EF0-863C-1E0FE522A14A}"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{4986D3CE-FD73-4EF0-863C-1E0FE522A14A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPHARM power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Scar number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +112,10 @@
   </si>
   <si>
     <t>Curvature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -542,25 +542,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" thickBot="1">
@@ -575,7 +575,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>29</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>31</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>14</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>8</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>22</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>26</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>22</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>20</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>27</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>28</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>14</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>15</v>

--- a/analysis/data/derived_data/flaking_intensity_and_shape.xlsx
+++ b/analysis/data/derived_data/flaking_intensity_and_shape.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE64AE79-8D7D-4B6D-A6AE-E39E33DF4CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA168A9-2E0F-46A9-BE25-A478675EB351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{4986D3CE-FD73-4EF0-863C-1E0FE522A14A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4986D3CE-FD73-4EF0-863C-1E0FE522A14A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
   </si>
   <si>
     <t>QSY_B_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSY_B_072</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -526,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83ACE98-54F7-4A30-AA74-8E374145FFB7}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -545,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -554,13 +550,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" thickBot="1">
@@ -864,55 +860,29 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>0.62292363150254459</v>
+        <v>0.78176642676504804</v>
       </c>
       <c r="D14" s="2">
-        <v>1.5618284930595875E-4</v>
+        <v>1.4048741584440866E-3</v>
       </c>
       <c r="E14" s="3">
-        <v>115.48421710219</v>
+        <v>117.941265283842</v>
       </c>
       <c r="F14" s="2">
-        <v>8.0081252289049498</v>
+        <v>7.6257672226880198</v>
       </c>
       <c r="G14" s="2">
-        <v>0.90212613413444998</v>
+        <v>0.90450780877599701</v>
       </c>
       <c r="H14" s="2">
-        <v>1.02041757098209</v>
+        <v>1.01614124668183</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.78176642676504804</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.4048741584440866E-3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>117.941265283842</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7.6257672226880198</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.90450780877599701</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1.01614124668183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/analysis/data/derived_data/flaking_intensity_and_shape.xlsx
+++ b/analysis/data/derived_data/flaking_intensity_and_shape.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lithic_Analysis\QSYSpheroidsStudy\analysis\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA168A9-2E0F-46A9-BE25-A478675EB351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A6BAEC-2B73-4E9E-9999-8B485425A5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4986D3CE-FD73-4EF0-863C-1E0FE522A14A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4986D3CE-FD73-4EF0-863C-1E0FE522A14A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Edge angle mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QSY_A_1098</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,14 @@
   </si>
   <si>
     <t>SHE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean edge angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSY_B_072</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +529,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -541,22 +545,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" thickBot="1">
@@ -571,7 +575,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>29</v>
@@ -597,7 +601,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>31</v>
@@ -623,7 +627,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>14</v>
@@ -649,7 +653,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>8</v>
@@ -675,7 +679,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>22</v>
@@ -701,7 +705,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>26</v>
@@ -727,7 +731,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>22</v>
@@ -753,7 +757,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>20</v>
@@ -779,7 +783,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>27</v>
@@ -805,7 +809,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>28</v>
@@ -831,7 +835,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>14</v>
@@ -857,32 +861,55 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.62292363150254459</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.5618284930595875E-4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>115.48421710219</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8.0081252289049498</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.90212613413444998</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.02041757098209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
+      <c r="B15" s="2">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.78176642676504804</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>1.4048741584440866E-3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>117.941265283842</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>7.6257672226880198</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>0.90450780877599701</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>1.01614124668183</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
